--- a/exercicios/1.3-exercicio-pclinics/Modelagem/Modelagem Fisica.xlsx
+++ b/exercicios/1.3-exercicio-pclinics/Modelagem/Modelagem Fisica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/796e2d2ae89cf7aa/Área de Trabalho/Senai/2T/senai_sprint1_bd/exercicios/1.3-exercicio-pclinics/Modelagem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D361C20488DEA4E38A0E984996C905BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D0FC674-333B-4FC3-8631-9CA15A8B1FD7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4D361C20488DEA4E38A0E984996C905BDEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23D4F967-056F-4E0D-BF24-025D016451F1}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="19560" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16284" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>dono</t>
   </si>
@@ -195,7 +195,19 @@
     <t>idAtendimento</t>
   </si>
   <si>
-    <t>DataAtendimento</t>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>82611187000124</t>
+  </si>
+  <si>
+    <t>43575326000150</t>
+  </si>
+  <si>
+    <t>CRMV</t>
+  </si>
+  <si>
+    <t>dataAtendimento</t>
   </si>
 </sst>
 </file>
@@ -291,9 +303,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,6 +310,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,13 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P21"/>
+  <dimension ref="B2:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,469 +625,493 @@
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>15</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>445789</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>18</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>546879</v>
       </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>31</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>1523455</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="5" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="1">
         <v>126</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="1">
         <v>28154925</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="2">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="1">
         <v>354</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="1">
         <v>23484158</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="G15" s="1" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="K16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="F17" s="10">
+        <v>25987</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
         <v>44469</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="F18" s="10">
+        <v>25687</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
         <v>3</v>
       </c>
-      <c r="J18" s="9">
+      <c r="K18" s="5">
         <v>44470</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="2">
+      <c r="F19" s="10">
+        <v>35784</v>
+      </c>
+      <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
         <v>44471</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="2">
+      <c r="F20" s="10">
+        <v>95874</v>
+      </c>
+      <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="1">
         <v>3</v>
       </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
         <v>44472</v>
       </c>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="2">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="1">
         <v>4</v>
       </c>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5">
         <v>44473</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E17:E20" numberStoredAsText="1"/>
+    <ignoredError sqref="E17:E20 J11:J12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>